--- a/hospitaldata.xlsx
+++ b/hospitaldata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18555" windowHeight="6390"/>
+    <workbookView windowWidth="18315" windowHeight="6045" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="病人" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>病人1</t>
   </si>
@@ -39,19 +39,26 @@
     <t>医疗资源</t>
   </si>
   <si>
-    <t>医疗资源类别与个数</t>
+    <t>最早开始时间</t>
+  </si>
+  <si>
+    <t>最晚结束时间</t>
+  </si>
+  <si>
+    <t>医疗资源类别与坐标</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -63,6 +70,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -70,43 +107,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,42 +176,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,40 +191,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,25 +222,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,157 +396,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,21 +432,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -450,15 +442,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,11 +461,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,6 +483,33 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,25 +528,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -539,152 +546,164 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1004,206 +1023,398 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <cols>
+    <col min="2" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="12.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="3" customWidth="1"/>
+    <col min="6" max="8" width="9" style="3"/>
+    <col min="10" max="12" width="9" style="3"/>
+    <col min="14" max="16" width="9" style="3"/>
+    <col min="18" max="20" width="9" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="4" t="s">
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="J2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="K2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="N2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="O2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="R2" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="5">
-        <v>6.4</v>
-      </c>
-      <c r="B3">
+      <c r="S2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>6.4</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="9">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3">
+        <v>18</v>
+      </c>
+      <c r="E3" s="8">
         <v>1</v>
       </c>
-      <c r="E3" s="5">
-        <v>6.4</v>
-      </c>
-      <c r="F3">
+      <c r="F3" s="9">
         <v>1</v>
       </c>
-      <c r="G3" s="5">
-        <v>30</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3" s="5">
-        <v>6.4</v>
-      </c>
-      <c r="J3">
+      <c r="G3" s="9">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3">
+        <v>18</v>
+      </c>
+      <c r="I3" s="8">
+        <v>2</v>
+      </c>
+      <c r="J3" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="6">
-        <v>20.41</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6">
-        <v>20.41</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="6">
-        <v>20.41</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="I4" s="6">
-        <v>16.39</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="6">
-        <v>7.22</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6">
-        <v>30.22</v>
-      </c>
-      <c r="D5">
+      <c r="K3" s="9">
+        <v>8</v>
+      </c>
+      <c r="L3" s="3">
+        <v>18</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="N3" s="9">
         <v>1</v>
       </c>
-      <c r="E5" s="6">
-        <v>10.37</v>
-      </c>
-      <c r="F5">
+      <c r="O3" s="9">
+        <v>8</v>
+      </c>
+      <c r="P3" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="R3" s="9">
+        <v>2</v>
+      </c>
+      <c r="S3" s="9">
+        <v>8</v>
+      </c>
+      <c r="T3" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3">
+        <v>18</v>
+      </c>
+      <c r="E4" s="10">
         <v>1</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="I5" s="6">
-        <v>30</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="6">
-        <v>16.2</v>
-      </c>
-      <c r="B6">
+      <c r="F4" s="11">
+        <v>2</v>
+      </c>
+      <c r="G4" s="11">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3">
+        <v>15</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="11">
+        <v>2</v>
+      </c>
+      <c r="K4" s="11">
+        <v>8</v>
+      </c>
+      <c r="L4" s="3">
+        <v>18</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="11">
+        <v>2</v>
+      </c>
+      <c r="O4" s="11">
+        <v>8</v>
+      </c>
+      <c r="P4" s="3">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="R4" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="6">
-        <v>16.2</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="6">
-        <v>31.45</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="6">
-        <v>21.21</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="E7" s="6">
-        <v>9.37</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
+      <c r="S4" s="11">
+        <v>8</v>
+      </c>
+      <c r="T4" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3">
+        <v>15</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="11">
+        <v>2</v>
+      </c>
+      <c r="G5" s="11">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3">
+        <v>18</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="J5" s="11">
+        <v>2</v>
+      </c>
+      <c r="K5" s="11">
+        <v>11</v>
+      </c>
+      <c r="L5" s="3">
+        <v>18</v>
+      </c>
+      <c r="M5" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="N5" s="11">
+        <v>2</v>
+      </c>
+      <c r="O5" s="11">
+        <v>8</v>
+      </c>
+      <c r="P5" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="B6" s="11">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3">
+        <v>15</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2</v>
+      </c>
+      <c r="F6" s="11">
+        <v>2</v>
+      </c>
+      <c r="G6" s="11">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3">
+        <v>18</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1</v>
+      </c>
+      <c r="J6" s="11">
+        <v>1</v>
+      </c>
+      <c r="K6" s="11">
+        <v>8</v>
+      </c>
+      <c r="L6" s="3">
+        <v>18</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="10">
+        <v>1</v>
+      </c>
+      <c r="B7" s="11">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3">
+        <v>15</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="F7" s="11">
+        <v>2</v>
+      </c>
+      <c r="G7" s="11">
+        <v>8</v>
+      </c>
+      <c r="H7" s="3">
+        <v>18</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3">
+        <v>18</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:T1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1241,8 +1452,8 @@
   <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1252,7 +1463,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1291,7 +1502,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1299,7 +1510,7 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1307,7 +1518,7 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1315,7 +1526,7 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1323,7 +1534,7 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
